--- a/Docs/BOM.SF1P.xlsx
+++ b/Docs/BOM.SF1P.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\SF-1P\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11B3896-FC44-4DBB-8EDA-DF2B5FBCCDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1452372B-BCAA-49A7-9EED-4376AE79CC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1275" windowWidth="14370" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29820" yWindow="1245" windowWidth="21945" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK4" localSheetId="0">Sheet1!$A$23</definedName>
+    <definedName name="OLE_LINK4" localSheetId="0">Sheet1!$A$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>AT-SF-1P</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>AT-SF1P/CBL04</t>
-  </si>
-  <si>
-    <t>AT-SF1P/CBL05</t>
   </si>
   <si>
     <t>Masad (width 19”)</t>
@@ -636,13 +633,129 @@
   </si>
   <si>
     <t>WiFi Dual Band USB Adapter (tp-link AC1900, Archer T9UH)</t>
+  </si>
+  <si>
+    <t>USB-RS485</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>opt 5.B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> USB3.0 TO LAN CARD 10/100/1000 + 3XUSB3.0 TP LINK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">opt. 5.A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Active USB HUB 4 ports</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>opt. 5.A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> USB-GigaEthernet adaptor</t>
+    </r>
+  </si>
+  <si>
+    <t>SD card 32GB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>opt. 3A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CBL-ETH/STP/STR/0.5M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>opt. 3B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> AT-SF1P/CBL05</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +820,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1009,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1058,8 +1186,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1081,6 +1207,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,9 +1263,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,17 +1544,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1428,25 +1563,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1479,13 +1614,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" ref="C8:C42" si="0">B8*2</f>
+        <f t="shared" ref="C8:C49" si="0">B8*2</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -1507,17 +1642,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1554,25 +1689,25 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1584,51 +1719,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <v>8</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -1640,7 +1774,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -1652,7 +1786,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -1662,137 +1796,137 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="9">
-        <v>2</v>
-      </c>
-      <c r="C27" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="4">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="B40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -1802,9 +1936,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
@@ -1814,145 +1948,242 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6">
+        <f>B47*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6">
+        <f>B54</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" ref="C55:C57" si="1">B55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="9">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="16"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="9">
-        <v>1</v>
-      </c>
-      <c r="C51" s="10"/>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="16"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="27">
+        <f>B60</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="4">
-        <v>2</v>
-      </c>
-      <c r="C54" s="18"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="27">
+        <f>B61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="4">
-        <v>1</v>
-      </c>
-      <c r="C55" s="18"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+      <c r="C62" s="27">
+        <f t="shared" ref="C62:C64" si="2">B62</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="4">
-        <v>2</v>
-      </c>
-      <c r="C56" s="18"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="18"/>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="9">
-        <v>1</v>
-      </c>
-      <c r="C58" s="19"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="B64" s="9">
+        <v>1</v>
+      </c>
+      <c r="C64" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
